--- a/data/Historico de Robos P&G.xlsx
+++ b/data/Historico de Robos P&G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoPG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7460AF2-B4E4-4E17-9C51-68CA3D1FC95D}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91610F69-7A2E-4AE5-AA66-BB750E6C98CC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FDD57E5-F050-4FF2-A833-F1B4639A88EE}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$U$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$V$270</definedName>
     <definedName name="ApiKey">#REF!</definedName>
     <definedName name="daygrid2">[1]!días2+[1]!semanas2*7</definedName>
     <definedName name="daypattern">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="824">
   <si>
     <t>lunes</t>
   </si>
@@ -2131,6 +2131,405 @@
   </si>
   <si>
     <t>Potosí</t>
+  </si>
+  <si>
+    <t>Tramo</t>
+  </si>
+  <si>
+    <t>Autopista Palmillas - Apaseo el Grande</t>
+  </si>
+  <si>
+    <t>Avenida San Lázaro</t>
+  </si>
+  <si>
+    <t>Viaducto Bicentenario</t>
+  </si>
+  <si>
+    <t>Carretera Federal Altotonga - Tlapacoyan</t>
+  </si>
+  <si>
+    <t>Prolongación Vicente Guerrero</t>
+  </si>
+  <si>
+    <t>Avenida Ceylán</t>
+  </si>
+  <si>
+    <t>Carretera Costera del Golfo</t>
+  </si>
+  <si>
+    <t>Libramiento Sur</t>
+  </si>
+  <si>
+    <t>Autopista México - Puebla</t>
+  </si>
+  <si>
+    <t>Avenida Tejocotes</t>
+  </si>
+  <si>
+    <t>Avenida Eusebio Kino</t>
+  </si>
+  <si>
+    <t>Autopista Puebla - Orizaba</t>
+  </si>
+  <si>
+    <t>Autopista La Tinaja - Acayucan</t>
+  </si>
+  <si>
+    <t>Nuevo Périferico Oriente</t>
+  </si>
+  <si>
+    <t>Libramiento Noreste de Querétaro</t>
+  </si>
+  <si>
+    <t>Circuito Exterior Mexiquense Bicentenario</t>
+  </si>
+  <si>
+    <t>Autopista Arco Norte</t>
+  </si>
+  <si>
+    <t>Tejocotes</t>
+  </si>
+  <si>
+    <t>Calle Teresa Peñafiel</t>
+  </si>
+  <si>
+    <t>Autopista Tehuacán - Oaxaca</t>
+  </si>
+  <si>
+    <t>Calle Alce Blanco</t>
+  </si>
+  <si>
+    <t>Boulevard Adolfo López Mateos</t>
+  </si>
+  <si>
+    <t>Libramiento Oriente de San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Calle Playa Revolcadero</t>
+  </si>
+  <si>
+    <t>Vía José María Morelos</t>
+  </si>
+  <si>
+    <t>Calle Anáhuac</t>
+  </si>
+  <si>
+    <t>Calle Julio Zárate</t>
+  </si>
+  <si>
+    <t>Calzada de Guadalupe</t>
+  </si>
+  <si>
+    <t>Autopista Lagos de Moreno - Zapotlanejo</t>
+  </si>
+  <si>
+    <t>Avenida Lecheria Cuautitlán</t>
+  </si>
+  <si>
+    <t>Carretera Libramiento Noroeste de Monterrey</t>
+  </si>
+  <si>
+    <t>Autopista Córdoba - Veracruz</t>
+  </si>
+  <si>
+    <t>Entronque Tulancingo - Venta Grande</t>
+  </si>
+  <si>
+    <t>Avenida Jesús Reyes Heroles</t>
+  </si>
+  <si>
+    <t>Calzada General Ignacio Zaragoza</t>
+  </si>
+  <si>
+    <t>Boulevard  Manuel Ávila Camacho</t>
+  </si>
+  <si>
+    <t>Coyotepec - Tepotzotlán</t>
+  </si>
+  <si>
+    <t>Calle Industria</t>
+  </si>
+  <si>
+    <t>Calle Lazaro Cardenas</t>
+  </si>
+  <si>
+    <t>Calle General Félix Barajas</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro - Ixmiquilpan</t>
+  </si>
+  <si>
+    <t>Libramiento San Martín de las Pirámides</t>
+  </si>
+  <si>
+    <t>Libramiento Norte</t>
+  </si>
+  <si>
+    <t>Avenida La Quebrada</t>
+  </si>
+  <si>
+    <t>Calle Turmalina</t>
+  </si>
+  <si>
+    <t>Avenida Tepalcapa</t>
+  </si>
+  <si>
+    <t>Calle Mariano Abasolo</t>
+  </si>
+  <si>
+    <t>Jesús Reyes Heroles</t>
+  </si>
+  <si>
+    <t>Carretera Coatzacoalcos - Villahermosa</t>
+  </si>
+  <si>
+    <t>Calle Justo Sierra</t>
+  </si>
+  <si>
+    <t>Calle Andrés Cavo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Avenida Las Torres Oriente</t>
+  </si>
+  <si>
+    <t>Avenida Central Carlos Hank González</t>
+  </si>
+  <si>
+    <t>Libramiento de Uruapan</t>
+  </si>
+  <si>
+    <t>Privada Alijadores</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro-Celaya</t>
+  </si>
+  <si>
+    <t>Autopista Córdoba - Puebla</t>
+  </si>
+  <si>
+    <t>Calle Poniente 146</t>
+  </si>
+  <si>
+    <t>Autopista Jutica - San Juan del Río</t>
+  </si>
+  <si>
+    <t>Autopista Cuernavaca - Chilpancingo</t>
+  </si>
+  <si>
+    <t>Autopista Guadalajara - Morelia</t>
+  </si>
+  <si>
+    <t>Calle Rufino Tamayo</t>
+  </si>
+  <si>
+    <t>Entrada El Jaralito</t>
+  </si>
+  <si>
+    <t>Autopista Citala - Tuxcueca</t>
+  </si>
+  <si>
+    <t>Libramiento Poniente de San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Autopista Chamapa - La Venta</t>
+  </si>
+  <si>
+    <t>Anillo Periférico Arco Sur</t>
+  </si>
+  <si>
+    <t>Macrolibramiento de Guadalajara</t>
+  </si>
+  <si>
+    <t>Libramiento de Matehuala</t>
+  </si>
+  <si>
+    <t>Autopista Cuautitlán - Tepotzotlán</t>
+  </si>
+  <si>
+    <t>Autopista Pátzcuaro - Uruapan</t>
+  </si>
+  <si>
+    <t>Ceylán</t>
+  </si>
+  <si>
+    <t>Calle Nacional</t>
+  </si>
+  <si>
+    <t>Pacula</t>
+  </si>
+  <si>
+    <t>Paseo Presidente Adolfo López Mateos</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t>Calle Joaquín Antonio Peñalosa</t>
+  </si>
+  <si>
+    <t>Calle Acuantentle</t>
+  </si>
+  <si>
+    <t>Autopista Méxicana Federal 57 Guanajuato</t>
+  </si>
+  <si>
+    <t>Calle Incalpa</t>
+  </si>
+  <si>
+    <t>Boulevard Manuel Ávila Camacho</t>
+  </si>
+  <si>
+    <t>Autopista Tuxpan - México</t>
+  </si>
+  <si>
+    <t>Avenida De Las Torres</t>
+  </si>
+  <si>
+    <t>Boulevard Autopista Puebla - Orizaba</t>
+  </si>
+  <si>
+    <t>Autopista México - Querétaro</t>
+  </si>
+  <si>
+    <t>Autopista Vía Corta San Ana</t>
+  </si>
+  <si>
+    <t>Calle De La Soledad</t>
+  </si>
+  <si>
+    <t>Autopista Cordoba - Veracruz</t>
+  </si>
+  <si>
+    <t>Libramiento Lagos de Moreno</t>
+  </si>
+  <si>
+    <t>Torrecillas Michoacán</t>
+  </si>
+  <si>
+    <t>Autopista León - Salamanca</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Autopista Matehuala - Monterrey</t>
+  </si>
+  <si>
+    <t>Tuxpan - Jalisco</t>
+  </si>
+  <si>
+    <t>Tlaxco - Tlaxcala</t>
+  </si>
+  <si>
+    <t>Pinos - Zacatecas</t>
+  </si>
+  <si>
+    <t>Xochiltepec - Puebla</t>
+  </si>
+  <si>
+    <t>Pihuamo - Jalisco</t>
+  </si>
+  <si>
+    <t>Xichú - Guanajuato</t>
+  </si>
+  <si>
+    <t>Tuzantla - Michocán</t>
+  </si>
+  <si>
+    <t>Hidalgo - Michoacán</t>
+  </si>
+  <si>
+    <t>Autopista Chamapa - Lechería</t>
+  </si>
+  <si>
+    <t>Libramiento Sur Celaya</t>
+  </si>
+  <si>
+    <t>Autopista México - Cuernavaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopista México - Guadalajara </t>
+  </si>
+  <si>
+    <t>Carretera Tlalnepantla - Cuautitlán</t>
+  </si>
+  <si>
+    <t>Autopista México - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Autopista San Luis Potosí - Matehuala</t>
+  </si>
+  <si>
+    <t>Autopista Celaya - Cortazar</t>
+  </si>
+  <si>
+    <t>Autopista Chapala - Guadalajara</t>
+  </si>
+  <si>
+    <t>Autopista Monterrey - Saltillo</t>
+  </si>
+  <si>
+    <t>Autopista Abasolo - Pénjamo</t>
+  </si>
+  <si>
+    <t>Autopista Mexicana Federal 57</t>
+  </si>
+  <si>
+    <t>Autopista Libre Monterrey - Saltillo</t>
+  </si>
+  <si>
+    <t>Autopista Saltillo - Matehuala</t>
+  </si>
+  <si>
+    <t>Autopista San Luis Potosí - Zacatecas</t>
+  </si>
+  <si>
+    <t>Carretera La Barca - Santa Rosa</t>
+  </si>
+  <si>
+    <t>Carretera Villa de Reyes - San Felipe</t>
+  </si>
+  <si>
+    <t>Carretera Cuencamé - Rio Grande</t>
+  </si>
+  <si>
+    <t>Carretera Salamanca - Juventino Rosas</t>
+  </si>
+  <si>
+    <t>Carretera San Luis Potosí - Arcinas</t>
+  </si>
+  <si>
+    <t>Autopista San Luis Potosí  - Zacatecas</t>
+  </si>
+  <si>
+    <t>Autopista Puebla - Cordoba</t>
+  </si>
+  <si>
+    <t>Boulevard Delta - Guanajuato</t>
+  </si>
+  <si>
+    <t>Norte 59 - Industrial Vallejo</t>
+  </si>
+  <si>
+    <t>Avenida Canal del Norte</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro - Celaya</t>
+  </si>
+  <si>
+    <t>Autopista Salamanca - León</t>
+  </si>
+  <si>
+    <t>Autopista Celaya - Salamanca</t>
+  </si>
+  <si>
+    <t>Autopista México - Tuxpan</t>
+  </si>
+  <si>
+    <t>Tafetan - Platanillo</t>
   </si>
 </sst>
 </file>
@@ -2689,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53C1F-2CEA-4529-A7B9-F629CD2F6B8A}">
-  <dimension ref="A1:U270"/>
+  <dimension ref="A1:V270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,9 +3103,10 @@
     <col min="19" max="19" width="23.21875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.5546875" style="1"/>
     <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>640</v>
       </c>
@@ -2770,8 +3170,11 @@
       <c r="U1" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>43833</v>
       </c>
@@ -2835,8 +3238,11 @@
       <c r="U2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43846</v>
       </c>
@@ -2900,8 +3306,11 @@
       <c r="U3" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43873</v>
       </c>
@@ -2965,8 +3374,11 @@
       <c r="U4" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>43874</v>
       </c>
@@ -3030,8 +3442,11 @@
       <c r="U5" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>43879</v>
       </c>
@@ -3095,8 +3510,11 @@
       <c r="U6" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43885</v>
       </c>
@@ -3160,8 +3578,11 @@
       <c r="U7" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>43887</v>
       </c>
@@ -3225,8 +3646,11 @@
       <c r="U8" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>43894</v>
       </c>
@@ -3290,8 +3714,11 @@
       <c r="U9" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>43901</v>
       </c>
@@ -3355,8 +3782,11 @@
       <c r="U10" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>43903</v>
       </c>
@@ -3420,8 +3850,11 @@
       <c r="U11" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>43906</v>
       </c>
@@ -3485,8 +3918,11 @@
       <c r="U12" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>43907</v>
       </c>
@@ -3550,8 +3986,11 @@
       <c r="U13" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>43910</v>
       </c>
@@ -3615,8 +4054,11 @@
       <c r="U14" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>43910</v>
       </c>
@@ -3680,8 +4122,11 @@
       <c r="U15" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>43924</v>
       </c>
@@ -3745,8 +4190,11 @@
       <c r="U16" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>43927</v>
       </c>
@@ -3810,8 +4258,11 @@
       <c r="U17" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>43933</v>
       </c>
@@ -3875,8 +4326,11 @@
       <c r="U18" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>43935</v>
       </c>
@@ -3940,8 +4394,11 @@
       <c r="U19" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>43936</v>
       </c>
@@ -4005,8 +4462,11 @@
       <c r="U20" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>43948</v>
       </c>
@@ -4070,8 +4530,11 @@
       <c r="U21" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>43956</v>
       </c>
@@ -4135,8 +4598,11 @@
       <c r="U22" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>43959</v>
       </c>
@@ -4200,8 +4666,11 @@
       <c r="U23" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>43964</v>
       </c>
@@ -4265,8 +4734,11 @@
       <c r="U24" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>43970</v>
       </c>
@@ -4330,8 +4802,11 @@
       <c r="U25" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>43971</v>
       </c>
@@ -4395,8 +4870,11 @@
       <c r="U26" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>43977</v>
       </c>
@@ -4460,8 +4938,11 @@
       <c r="U27" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>43979</v>
       </c>
@@ -4525,8 +5006,11 @@
       <c r="U28" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>43983</v>
       </c>
@@ -4590,8 +5074,11 @@
       <c r="U29" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>43983</v>
       </c>
@@ -4655,8 +5142,11 @@
       <c r="U30" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>44003</v>
       </c>
@@ -4720,8 +5210,11 @@
       <c r="U31" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>44003</v>
       </c>
@@ -4785,8 +5278,11 @@
       <c r="U32" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>44006</v>
       </c>
@@ -4850,8 +5346,11 @@
       <c r="U33" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>44007</v>
       </c>
@@ -4915,8 +5414,11 @@
       <c r="U34" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>44007</v>
       </c>
@@ -4980,8 +5482,11 @@
       <c r="U35" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>44011</v>
       </c>
@@ -5045,8 +5550,11 @@
       <c r="U36" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>44033</v>
       </c>
@@ -5110,8 +5618,11 @@
       <c r="U37" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>44034</v>
       </c>
@@ -5175,8 +5686,11 @@
       <c r="U38" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>44037</v>
       </c>
@@ -5240,8 +5754,11 @@
       <c r="U39" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>44041</v>
       </c>
@@ -5305,8 +5822,11 @@
       <c r="U40" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>44050</v>
       </c>
@@ -5370,8 +5890,11 @@
       <c r="U41" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>44054</v>
       </c>
@@ -5435,8 +5958,11 @@
       <c r="U42" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>44065</v>
       </c>
@@ -5500,8 +6026,11 @@
       <c r="U43" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>44065</v>
       </c>
@@ -5565,8 +6094,11 @@
       <c r="U44" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44067</v>
       </c>
@@ -5630,8 +6162,11 @@
       <c r="U45" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>44074</v>
       </c>
@@ -5695,8 +6230,11 @@
       <c r="U46" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>44079</v>
       </c>
@@ -5760,8 +6298,11 @@
       <c r="U47" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>44104</v>
       </c>
@@ -5825,8 +6366,11 @@
       <c r="U48" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>44142</v>
       </c>
@@ -5890,8 +6434,11 @@
       <c r="U49" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>44146</v>
       </c>
@@ -5955,8 +6502,11 @@
       <c r="U50" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>44154</v>
       </c>
@@ -6020,8 +6570,11 @@
       <c r="U51" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>44156</v>
       </c>
@@ -6071,7 +6624,7 @@
         <v>7</v>
       </c>
       <c r="Q52" s="3">
-        <v>29.593119999999999</v>
+        <v>19.593119999999999</v>
       </c>
       <c r="R52" s="3">
         <v>-101.13876999999999</v>
@@ -6085,8 +6638,11 @@
       <c r="U52" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>44157</v>
       </c>
@@ -6150,8 +6706,11 @@
       <c r="U53" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>44161</v>
       </c>
@@ -6215,8 +6774,11 @@
       <c r="U54" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>44161</v>
       </c>
@@ -6280,8 +6842,11 @@
       <c r="U55" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>44209.255949074075</v>
       </c>
@@ -6345,8 +6910,11 @@
       <c r="U56" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>44211.224722222221</v>
       </c>
@@ -6410,8 +6978,11 @@
       <c r="U57" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V57" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>44218.031238425923</v>
       </c>
@@ -6475,8 +7046,11 @@
       <c r="U58" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>44232.112858796296</v>
       </c>
@@ -6540,8 +7114,11 @@
       <c r="U59" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V59" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>44232.112858796296</v>
       </c>
@@ -6605,8 +7182,11 @@
       <c r="U60" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V60" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>44238.28638888889</v>
       </c>
@@ -6670,8 +7250,11 @@
       <c r="U61" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V61" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>44238.325462962966</v>
       </c>
@@ -6735,8 +7318,11 @@
       <c r="U62" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V62" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>44245.842013888891</v>
       </c>
@@ -6800,8 +7386,11 @@
       <c r="U63" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V63" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>44253.813958333332</v>
       </c>
@@ -6865,8 +7454,11 @@
       <c r="U64" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V64" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>44256.211111111108</v>
       </c>
@@ -6930,8 +7522,11 @@
       <c r="U65" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>44270.119988425926</v>
       </c>
@@ -6995,8 +7590,11 @@
       <c r="U66" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>44271.748402777775</v>
       </c>
@@ -7060,8 +7658,11 @@
       <c r="U67" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>44272.154583333337</v>
       </c>
@@ -7125,8 +7726,11 @@
       <c r="U68" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V68" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>44276.136967592596</v>
       </c>
@@ -7190,8 +7794,11 @@
       <c r="U69" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V69" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>44293.990243055552</v>
       </c>
@@ -7255,8 +7862,11 @@
       <c r="U70" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V70" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>44295.142361111109</v>
       </c>
@@ -7320,8 +7930,11 @@
       <c r="U71" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>44299</v>
       </c>
@@ -7385,8 +7998,11 @@
       <c r="U72" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V72" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>44300</v>
       </c>
@@ -7450,8 +8066,11 @@
       <c r="U73" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>44302.505671296298</v>
       </c>
@@ -7515,8 +8134,11 @@
       <c r="U74" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>44313.775000000001</v>
       </c>
@@ -7580,8 +8202,11 @@
       <c r="U75" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V75" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>44313.973611111112</v>
       </c>
@@ -7645,8 +8270,11 @@
       <c r="U76" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V76" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>44319.279861111114</v>
       </c>
@@ -7710,8 +8338,11 @@
       <c r="U77" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V77" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>44320.894872685189</v>
       </c>
@@ -7775,8 +8406,11 @@
       <c r="U78" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V78" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>44335.177812499998</v>
       </c>
@@ -7840,8 +8474,11 @@
       <c r="U79" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V79" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>44336.766631944447</v>
       </c>
@@ -7905,8 +8542,11 @@
       <c r="U80" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V80" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>44344.274548611109</v>
       </c>
@@ -7970,8 +8610,11 @@
       <c r="U81" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V81" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>44348.1559837963</v>
       </c>
@@ -8035,8 +8678,11 @@
       <c r="U82" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V82" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>44353</v>
       </c>
@@ -8100,8 +8746,11 @@
       <c r="U83" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V83" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>44356</v>
       </c>
@@ -8165,8 +8814,11 @@
       <c r="U84" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V84" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>44363</v>
       </c>
@@ -8230,8 +8882,11 @@
       <c r="U85" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V85" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>44365</v>
       </c>
@@ -8295,8 +8950,11 @@
       <c r="U86" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V86" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>44372.079861111109</v>
       </c>
@@ -8360,8 +9018,11 @@
       <c r="U87" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V87" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>44372.322916666664</v>
       </c>
@@ -8425,8 +9086,11 @@
       <c r="U88" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V88" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>44373.166666666664</v>
       </c>
@@ -8490,8 +9154,11 @@
       <c r="U89" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V89" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>44379.898611111108</v>
       </c>
@@ -8555,8 +9222,11 @@
       <c r="U90" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>44391.219201388885</v>
       </c>
@@ -8620,8 +9290,11 @@
       <c r="U91" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V91" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>44396.665335648147</v>
       </c>
@@ -8685,8 +9358,11 @@
       <c r="U92" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>44397.94027777778</v>
       </c>
@@ -8750,8 +9426,11 @@
       <c r="U93" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>44404.331678240742</v>
       </c>
@@ -8815,8 +9494,11 @@
       <c r="U94" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>44413</v>
       </c>
@@ -8880,8 +9562,11 @@
       <c r="U95" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V95" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>44420</v>
       </c>
@@ -8945,8 +9630,11 @@
       <c r="U96" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>44420</v>
       </c>
@@ -9010,8 +9698,11 @@
       <c r="U97" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>44425</v>
       </c>
@@ -9075,8 +9766,11 @@
       <c r="U98" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>44432</v>
       </c>
@@ -9140,8 +9834,11 @@
       <c r="U99" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>44433</v>
       </c>
@@ -9205,8 +9902,11 @@
       <c r="U100" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>44433</v>
       </c>
@@ -9270,8 +9970,11 @@
       <c r="U101" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V101" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>44433</v>
       </c>
@@ -9335,8 +10038,11 @@
       <c r="U102" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V102" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>44442</v>
       </c>
@@ -9400,8 +10106,11 @@
       <c r="U103" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V103" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>44450</v>
       </c>
@@ -9465,8 +10174,11 @@
       <c r="U104" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V104" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>44453</v>
       </c>
@@ -9530,8 +10242,11 @@
       <c r="U105" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V105" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>44460</v>
       </c>
@@ -9595,8 +10310,11 @@
       <c r="U106" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V106" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>44461</v>
       </c>
@@ -9660,8 +10378,11 @@
       <c r="U107" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V107" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>44463</v>
       </c>
@@ -9725,8 +10446,11 @@
       <c r="U108" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V108" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>44463</v>
       </c>
@@ -9790,8 +10514,11 @@
       <c r="U109" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V109" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>44466</v>
       </c>
@@ -9855,8 +10582,11 @@
       <c r="U110" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V110" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>44467</v>
       </c>
@@ -9920,8 +10650,11 @@
       <c r="U111" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V111" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>44472.463692129626</v>
       </c>
@@ -9985,8 +10718,11 @@
       <c r="U112" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V112" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>44477.639062499999</v>
       </c>
@@ -10050,8 +10786,11 @@
       <c r="U113" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V113" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>44481.10833333333</v>
       </c>
@@ -10115,8 +10854,11 @@
       <c r="U114" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V114" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>44481.287407407406</v>
       </c>
@@ -10180,8 +10922,11 @@
       <c r="U115" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V115" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>44484.283333333333</v>
       </c>
@@ -10245,8 +10990,11 @@
       <c r="U116" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V116" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>44487.777349537035</v>
       </c>
@@ -10310,8 +11058,11 @@
       <c r="U117" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V117" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>44495.810416666667</v>
       </c>
@@ -10375,8 +11126,11 @@
       <c r="U118" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V118" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>44505</v>
       </c>
@@ -10440,8 +11194,11 @@
       <c r="U119" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V119" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>44519</v>
       </c>
@@ -10505,8 +11262,11 @@
       <c r="U120" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V120" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>44521</v>
       </c>
@@ -10570,8 +11330,11 @@
       <c r="U121" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V121" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>44527</v>
       </c>
@@ -10635,8 +11398,11 @@
       <c r="U122" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V122" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>44530</v>
       </c>
@@ -10700,8 +11466,11 @@
       <c r="U123" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V123" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>44530</v>
       </c>
@@ -10765,8 +11534,11 @@
       <c r="U124" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V124" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>44535</v>
       </c>
@@ -10830,8 +11602,11 @@
       <c r="U125" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V125" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>44547</v>
       </c>
@@ -10895,8 +11670,11 @@
       <c r="U126" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V126" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>44548</v>
       </c>
@@ -10960,8 +11738,11 @@
       <c r="U127" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V127" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>44556</v>
       </c>
@@ -11025,8 +11806,11 @@
       <c r="U128" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V128" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>44579</v>
       </c>
@@ -11090,8 +11874,11 @@
       <c r="U129" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V129" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>44595</v>
       </c>
@@ -11155,8 +11942,11 @@
       <c r="U130" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V130" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>44597</v>
       </c>
@@ -11220,8 +12010,11 @@
       <c r="U131" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V131" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>44601</v>
       </c>
@@ -11285,8 +12078,11 @@
       <c r="U132" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V132" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>44602</v>
       </c>
@@ -11350,8 +12146,11 @@
       <c r="U133" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V133" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>44615</v>
       </c>
@@ -11415,8 +12214,11 @@
       <c r="U134" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V134" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>44620</v>
       </c>
@@ -11480,8 +12282,11 @@
       <c r="U135" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V135" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>44622</v>
       </c>
@@ -11545,8 +12350,11 @@
       <c r="U136" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V136" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>44622</v>
       </c>
@@ -11610,8 +12418,11 @@
       <c r="U137" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V137" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>44623</v>
       </c>
@@ -11675,8 +12486,11 @@
       <c r="U138" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V138" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>44628</v>
       </c>
@@ -11740,8 +12554,11 @@
       <c r="U139" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V139" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>44635</v>
       </c>
@@ -11805,8 +12622,11 @@
       <c r="U140" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V140" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>44639</v>
       </c>
@@ -11870,8 +12690,11 @@
       <c r="U141" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V141" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>44645</v>
       </c>
@@ -11935,8 +12758,11 @@
       <c r="U142" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V142" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>44662</v>
       </c>
@@ -12000,8 +12826,11 @@
       <c r="U143" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V143" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>44681</v>
       </c>
@@ -12065,8 +12894,11 @@
       <c r="U144" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V144" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <v>44683</v>
       </c>
@@ -12130,8 +12962,11 @@
       <c r="U145" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V145" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>44685</v>
       </c>
@@ -12195,8 +13030,11 @@
       <c r="U146" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V146" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>44686</v>
       </c>
@@ -12260,8 +13098,11 @@
       <c r="U147" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V147" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>44690</v>
       </c>
@@ -12325,8 +13166,11 @@
       <c r="U148" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V148" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>44705</v>
       </c>
@@ -12390,8 +13234,11 @@
       <c r="U149" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V149" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>44710</v>
       </c>
@@ -12455,8 +13302,11 @@
       <c r="U150" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V150" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>44719</v>
       </c>
@@ -12520,8 +13370,11 @@
       <c r="U151" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V151" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>44720</v>
       </c>
@@ -12585,8 +13438,11 @@
       <c r="U152" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V152" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>44721</v>
       </c>
@@ -12650,8 +13506,11 @@
       <c r="U153" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V153" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>44721</v>
       </c>
@@ -12715,8 +13574,11 @@
       <c r="U154" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V154" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>44725</v>
       </c>
@@ -12780,8 +13642,11 @@
       <c r="U155" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V155" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>44726</v>
       </c>
@@ -12845,8 +13710,11 @@
       <c r="U156" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V156" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>44726</v>
       </c>
@@ -12910,8 +13778,11 @@
       <c r="U157" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V157" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>44727</v>
       </c>
@@ -12975,8 +13846,11 @@
       <c r="U158" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V158" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>44738</v>
       </c>
@@ -13040,8 +13914,11 @@
       <c r="U159" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V159" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>44741</v>
       </c>
@@ -13105,8 +13982,11 @@
       <c r="U160" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V160" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>44742</v>
       </c>
@@ -13170,8 +14050,11 @@
       <c r="U161" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V161" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>44748</v>
       </c>
@@ -13235,8 +14118,11 @@
       <c r="U162" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V162" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>44750</v>
       </c>
@@ -13300,8 +14186,11 @@
       <c r="U163" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V163" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>44751</v>
       </c>
@@ -13365,8 +14254,11 @@
       <c r="U164" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V164" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>44781</v>
       </c>
@@ -13430,8 +14322,11 @@
       <c r="U165" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V165" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>44795</v>
       </c>
@@ -13495,8 +14390,11 @@
       <c r="U166" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V166" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>44797</v>
       </c>
@@ -13560,8 +14458,11 @@
       <c r="U167" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V167" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>44805</v>
       </c>
@@ -13625,8 +14526,11 @@
       <c r="U168" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V168" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>44816</v>
       </c>
@@ -13690,8 +14594,11 @@
       <c r="U169" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V169" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>44818</v>
       </c>
@@ -13755,8 +14662,11 @@
       <c r="U170" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V170" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>44820</v>
       </c>
@@ -13820,8 +14730,11 @@
       <c r="U171" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V171" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>44823</v>
       </c>
@@ -13885,8 +14798,11 @@
       <c r="U172" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V172" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>44825</v>
       </c>
@@ -13950,8 +14866,11 @@
       <c r="U173" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V173" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>44827</v>
       </c>
@@ -14015,8 +14934,11 @@
       <c r="U174" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V174" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>44836</v>
       </c>
@@ -14080,8 +15002,11 @@
       <c r="U175" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V175" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>44838</v>
       </c>
@@ -14145,8 +15070,11 @@
       <c r="U176" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V176" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>44842</v>
       </c>
@@ -14210,8 +15138,11 @@
       <c r="U177" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V177" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>44858</v>
       </c>
@@ -14275,8 +15206,11 @@
       <c r="U178" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V178" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>44865</v>
       </c>
@@ -14340,8 +15274,11 @@
       <c r="U179" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V179" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>44872</v>
       </c>
@@ -14405,8 +15342,11 @@
       <c r="U180" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V180" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>44881</v>
       </c>
@@ -14470,8 +15410,11 @@
       <c r="U181" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V181" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>44882</v>
       </c>
@@ -14535,8 +15478,11 @@
       <c r="U182" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V182" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>44888</v>
       </c>
@@ -14600,8 +15546,11 @@
       <c r="U183" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V183" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>44889</v>
       </c>
@@ -14665,8 +15614,11 @@
       <c r="U184" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>44902</v>
       </c>
@@ -14730,8 +15682,11 @@
       <c r="U185" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V185" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>44923</v>
       </c>
@@ -14795,8 +15750,11 @@
       <c r="U186" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V186" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>44924</v>
       </c>
@@ -14860,8 +15818,11 @@
       <c r="U187" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V187" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>44908</v>
       </c>
@@ -14925,8 +15886,11 @@
       <c r="U188" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V188" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>44904</v>
       </c>
@@ -14990,8 +15954,11 @@
       <c r="U189" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V189" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>44909</v>
       </c>
@@ -15055,8 +16022,11 @@
       <c r="U190" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V190" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>44909</v>
       </c>
@@ -15120,8 +16090,11 @@
       <c r="U191" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V191" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>44901</v>
       </c>
@@ -15185,8 +16158,11 @@
       <c r="U192" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V192" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>44901</v>
       </c>
@@ -15250,8 +16226,11 @@
       <c r="U193" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V193" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>44925</v>
       </c>
@@ -15315,8 +16294,11 @@
       <c r="U194" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V194" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>44935</v>
       </c>
@@ -15380,8 +16362,11 @@
       <c r="U195" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V195" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>44935</v>
       </c>
@@ -15445,8 +16430,11 @@
       <c r="U196" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V196" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>44930</v>
       </c>
@@ -15510,8 +16498,11 @@
       <c r="U197" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V197" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>44936</v>
       </c>
@@ -15575,8 +16566,11 @@
       <c r="U198" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V198" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>44938</v>
       </c>
@@ -15640,8 +16634,11 @@
       <c r="U199" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V199" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>44942</v>
       </c>
@@ -15705,8 +16702,11 @@
       <c r="U200" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V200" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>44945</v>
       </c>
@@ -15770,8 +16770,11 @@
       <c r="U201" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V201" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>44949</v>
       </c>
@@ -15835,8 +16838,11 @@
       <c r="U202" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V202" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>44966</v>
       </c>
@@ -15900,8 +16906,11 @@
       <c r="U203" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V203" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>44973</v>
       </c>
@@ -15965,8 +16974,11 @@
       <c r="U204" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V204" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>44985</v>
       </c>
@@ -16030,8 +17042,11 @@
       <c r="U205" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V205" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>44958</v>
       </c>
@@ -16095,8 +17110,11 @@
       <c r="U206" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V206" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>44959</v>
       </c>
@@ -16160,8 +17178,11 @@
       <c r="U207" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V207" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>44962</v>
       </c>
@@ -16225,8 +17246,11 @@
       <c r="U208" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V208" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>44964</v>
       </c>
@@ -16290,8 +17314,11 @@
       <c r="U209" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V209" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>44964</v>
       </c>
@@ -16355,8 +17382,11 @@
       <c r="U210" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V210" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>44977</v>
       </c>
@@ -16420,8 +17450,11 @@
       <c r="U211" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V211" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>44979</v>
       </c>
@@ -16485,8 +17518,11 @@
       <c r="U212" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V212" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>44981</v>
       </c>
@@ -16550,8 +17586,11 @@
       <c r="U213" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V213" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>44985</v>
       </c>
@@ -16615,8 +17654,11 @@
       <c r="U214" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V214" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>44993</v>
       </c>
@@ -16680,8 +17722,11 @@
       <c r="U215" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V215" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>45000</v>
       </c>
@@ -16745,8 +17790,11 @@
       <c r="U216" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V216" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>45006</v>
       </c>
@@ -16810,8 +17858,11 @@
       <c r="U217" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V217" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>45012</v>
       </c>
@@ -16875,8 +17926,11 @@
       <c r="U218" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V218" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>45021</v>
       </c>
@@ -16940,8 +17994,11 @@
       <c r="U219" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V219" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>45024</v>
       </c>
@@ -17005,8 +18062,11 @@
       <c r="U220" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V220" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>45037</v>
       </c>
@@ -17070,8 +18130,11 @@
       <c r="U221" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V221" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>45070</v>
       </c>
@@ -17135,8 +18198,11 @@
       <c r="U222" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V222" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>45073</v>
       </c>
@@ -17200,8 +18266,11 @@
       <c r="U223" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V223" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>44994</v>
       </c>
@@ -17265,8 +18334,11 @@
       <c r="U224" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V224" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>44995</v>
       </c>
@@ -17330,8 +18402,11 @@
       <c r="U225" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V225" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>44996</v>
       </c>
@@ -17395,8 +18470,11 @@
       <c r="U226" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V226" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>44996</v>
       </c>
@@ -17460,8 +18538,11 @@
       <c r="U227" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V227" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>45002</v>
       </c>
@@ -17525,8 +18606,11 @@
       <c r="U228" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V228" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>45006</v>
       </c>
@@ -17590,8 +18674,11 @@
       <c r="U229" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V229" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>45028</v>
       </c>
@@ -17655,8 +18742,11 @@
       <c r="U230" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V230" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>45036</v>
       </c>
@@ -17720,8 +18810,11 @@
       <c r="U231" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V231" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>45040</v>
       </c>
@@ -17785,8 +18878,11 @@
       <c r="U232" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V232" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>45051</v>
       </c>
@@ -17850,8 +18946,11 @@
       <c r="U233" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V233" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>45056</v>
       </c>
@@ -17915,8 +19014,11 @@
       <c r="U234" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V234" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>45065</v>
       </c>
@@ -17980,8 +19082,11 @@
       <c r="U235" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V235" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>45068</v>
       </c>
@@ -18045,8 +19150,11 @@
       <c r="U236" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V236" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>45075</v>
       </c>
@@ -18110,8 +19218,11 @@
       <c r="U237" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V237" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>45055</v>
       </c>
@@ -18175,8 +19286,11 @@
       <c r="U238" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V238" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>45071</v>
       </c>
@@ -18240,8 +19354,11 @@
       <c r="U239" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V239" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>45105</v>
       </c>
@@ -18305,8 +19422,11 @@
       <c r="U240" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V240" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>45104</v>
       </c>
@@ -18370,8 +19490,11 @@
       <c r="U241" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V241" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>45111</v>
       </c>
@@ -18435,8 +19558,11 @@
       <c r="U242" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V242" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>45114</v>
       </c>
@@ -18500,8 +19626,11 @@
       <c r="U243" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V243" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>45118</v>
       </c>
@@ -18565,8 +19694,11 @@
       <c r="U244" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V244" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>45119</v>
       </c>
@@ -18630,8 +19762,11 @@
       <c r="U245" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V245" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>45119</v>
       </c>
@@ -18695,8 +19830,11 @@
       <c r="U246" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V246" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>45126</v>
       </c>
@@ -18760,8 +19898,11 @@
       <c r="U247" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V247" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>45127</v>
       </c>
@@ -18825,8 +19966,11 @@
       <c r="U248" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V248" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>45127</v>
       </c>
@@ -18890,8 +20034,11 @@
       <c r="U249" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V249" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>45137</v>
       </c>
@@ -18955,8 +20102,11 @@
       <c r="U250" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V250" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>45126</v>
       </c>
@@ -19020,8 +20170,11 @@
       <c r="U251" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V251" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>45127</v>
       </c>
@@ -19085,8 +20238,11 @@
       <c r="U252" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V252" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>45131</v>
       </c>
@@ -19150,8 +20306,11 @@
       <c r="U253" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V253" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>45146</v>
       </c>
@@ -19215,8 +20374,11 @@
       <c r="U254" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V254" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>45153</v>
       </c>
@@ -19280,8 +20442,11 @@
       <c r="U255" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V255" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>45147</v>
       </c>
@@ -19345,8 +20510,11 @@
       <c r="U256" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V256" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>45152</v>
       </c>
@@ -19410,8 +20578,11 @@
       <c r="U257" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V257" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>45152</v>
       </c>
@@ -19475,8 +20646,11 @@
       <c r="U258" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V258" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>45163</v>
       </c>
@@ -19540,8 +20714,11 @@
       <c r="U259" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V259" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>45167</v>
       </c>
@@ -19605,8 +20782,11 @@
       <c r="U260" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V260" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>45181</v>
       </c>
@@ -19670,8 +20850,11 @@
       <c r="U261" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V261" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>45188</v>
       </c>
@@ -19735,8 +20918,11 @@
       <c r="U262" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V262" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>45195</v>
       </c>
@@ -19800,8 +20986,11 @@
       <c r="U263" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V263" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>45188</v>
       </c>
@@ -19865,8 +21054,11 @@
       <c r="U264" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V264" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>45188</v>
       </c>
@@ -19930,8 +21122,11 @@
       <c r="U265" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V265" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>45204</v>
       </c>
@@ -19995,8 +21190,11 @@
       <c r="U266" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V266" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>45219</v>
       </c>
@@ -20060,8 +21258,11 @@
       <c r="U267" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V267" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>45224</v>
       </c>
@@ -20125,8 +21326,11 @@
       <c r="U268" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V268" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>45224</v>
       </c>
@@ -20190,8 +21394,11 @@
       <c r="U269" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V269" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>45224</v>
       </c>
@@ -20254,6 +21461,9 @@
       </c>
       <c r="U270" t="s">
         <v>657</v>
+      </c>
+      <c r="V270" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/data/Historico de Robos P&G.xlsx
+++ b/data/Historico de Robos P&G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoPG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91610F69-7A2E-4AE5-AA66-BB750E6C98CC}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4429F8-78E3-47DC-BE13-8EF818ACD9E8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FDD57E5-F050-4FF2-A833-F1B4639A88EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FDD57E5-F050-4FF2-A833-F1B4639A88EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="823">
   <si>
     <t>lunes</t>
   </si>
@@ -2287,9 +2287,6 @@
   </si>
   <si>
     <t>Calle Andrés Cavo</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Avenida Las Torres Oriente</t>
@@ -3090,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53C1F-2CEA-4529-A7B9-F629CD2F6B8A}">
   <dimension ref="A1:V270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3099,7 +3096,9 @@
     <col min="1" max="2" width="11.5546875" style="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" style="11"/>
-    <col min="15" max="18" width="11.5546875" style="1"/>
+    <col min="15" max="16" width="11.5546875" style="1"/>
+    <col min="17" max="17" width="15.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" style="1" customWidth="1"/>
     <col min="19" max="19" width="23.21875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.5546875" style="1"/>
     <col min="21" max="21" width="17.6640625" customWidth="1"/>
@@ -3239,7 +3238,7 @@
         <v>657</v>
       </c>
       <c r="V2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -3443,7 +3442,7 @@
         <v>657</v>
       </c>
       <c r="V5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -3511,7 +3510,7 @@
         <v>643</v>
       </c>
       <c r="V6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -3715,7 +3714,7 @@
         <v>643</v>
       </c>
       <c r="V9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3851,7 +3850,7 @@
         <v>643</v>
       </c>
       <c r="V11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3919,7 +3918,7 @@
         <v>645</v>
       </c>
       <c r="V12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -4123,7 +4122,7 @@
         <v>644</v>
       </c>
       <c r="V15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4327,7 +4326,7 @@
         <v>657</v>
       </c>
       <c r="V18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -4463,7 +4462,7 @@
         <v>646</v>
       </c>
       <c r="V20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -4599,7 +4598,7 @@
         <v>645</v>
       </c>
       <c r="V22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -4735,7 +4734,7 @@
         <v>643</v>
       </c>
       <c r="V24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -5143,7 +5142,7 @@
         <v>641</v>
       </c>
       <c r="V30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -5211,7 +5210,7 @@
         <v>647</v>
       </c>
       <c r="V31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -5347,7 +5346,7 @@
         <v>657</v>
       </c>
       <c r="V33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -5619,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="V37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -5755,7 +5754,7 @@
         <v>643</v>
       </c>
       <c r="V39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -6163,7 +6162,7 @@
         <v>657</v>
       </c>
       <c r="V45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -6435,7 +6434,7 @@
         <v>650</v>
       </c>
       <c r="V49" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -6503,7 +6502,7 @@
         <v>643</v>
       </c>
       <c r="V50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -6639,7 +6638,7 @@
         <v>657</v>
       </c>
       <c r="V52" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -6775,7 +6774,7 @@
         <v>646</v>
       </c>
       <c r="V54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -6911,7 +6910,7 @@
         <v>651</v>
       </c>
       <c r="V56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -7047,7 +7046,7 @@
         <v>646</v>
       </c>
       <c r="V58" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -7251,7 +7250,7 @@
         <v>641</v>
       </c>
       <c r="V61" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -7455,7 +7454,7 @@
         <v>643</v>
       </c>
       <c r="V64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -7727,7 +7726,7 @@
         <v>651</v>
       </c>
       <c r="V68" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -7795,7 +7794,7 @@
         <v>641</v>
       </c>
       <c r="V69" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -7863,7 +7862,7 @@
         <v>643</v>
       </c>
       <c r="V70" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -7931,7 +7930,7 @@
         <v>657</v>
       </c>
       <c r="V71" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -8203,7 +8202,7 @@
         <v>641</v>
       </c>
       <c r="V75" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -8271,7 +8270,7 @@
         <v>643</v>
       </c>
       <c r="V76" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -8543,7 +8542,7 @@
         <v>646</v>
       </c>
       <c r="V80" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -8883,7 +8882,7 @@
         <v>643</v>
       </c>
       <c r="V85" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -9291,7 +9290,7 @@
         <v>650</v>
       </c>
       <c r="V91" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -9359,7 +9358,7 @@
         <v>646</v>
       </c>
       <c r="V92" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -9631,7 +9630,7 @@
         <v>652</v>
       </c>
       <c r="V96" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -9767,7 +9766,7 @@
         <v>643</v>
       </c>
       <c r="V98" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -9971,7 +9970,7 @@
         <v>646</v>
       </c>
       <c r="V101" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -10107,7 +10106,7 @@
         <v>643</v>
       </c>
       <c r="V103" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -10175,7 +10174,7 @@
         <v>657</v>
       </c>
       <c r="V104" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -10447,7 +10446,7 @@
         <v>643</v>
       </c>
       <c r="V108" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
@@ -10515,7 +10514,7 @@
         <v>643</v>
       </c>
       <c r="V109" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -10719,7 +10718,7 @@
         <v>643</v>
       </c>
       <c r="V112" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -10787,7 +10786,7 @@
         <v>647</v>
       </c>
       <c r="V113" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
@@ -11059,7 +11058,7 @@
         <v>651</v>
       </c>
       <c r="V117" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -11127,7 +11126,7 @@
         <v>643</v>
       </c>
       <c r="V118" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -11399,7 +11398,7 @@
         <v>643</v>
       </c>
       <c r="V122" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -11603,7 +11602,7 @@
         <v>657</v>
       </c>
       <c r="V125" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -11739,7 +11738,7 @@
         <v>641</v>
       </c>
       <c r="V127" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
@@ -11807,7 +11806,7 @@
         <v>654</v>
       </c>
       <c r="V128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -11875,7 +11874,7 @@
         <v>657</v>
       </c>
       <c r="V129" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
@@ -11943,7 +11942,7 @@
         <v>657</v>
       </c>
       <c r="V130" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -12011,7 +12010,7 @@
         <v>643</v>
       </c>
       <c r="V131" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -12147,7 +12146,7 @@
         <v>643</v>
       </c>
       <c r="V133" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
@@ -12215,7 +12214,7 @@
         <v>646</v>
       </c>
       <c r="V134" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
@@ -12487,7 +12486,7 @@
         <v>641</v>
       </c>
       <c r="V138" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -12691,7 +12690,7 @@
         <v>652</v>
       </c>
       <c r="V141" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
@@ -12759,7 +12758,7 @@
         <v>647</v>
       </c>
       <c r="V142" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
@@ -12827,7 +12826,7 @@
         <v>643</v>
       </c>
       <c r="V143" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
@@ -12895,7 +12894,7 @@
         <v>642</v>
       </c>
       <c r="V144" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
@@ -13031,7 +13030,7 @@
         <v>643</v>
       </c>
       <c r="V146" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
@@ -13099,7 +13098,7 @@
         <v>646</v>
       </c>
       <c r="V147" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
@@ -13303,7 +13302,7 @@
         <v>647</v>
       </c>
       <c r="V150" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.3">
@@ -13439,7 +13438,7 @@
         <v>645</v>
       </c>
       <c r="V152" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
@@ -13575,7 +13574,7 @@
         <v>650</v>
       </c>
       <c r="V154" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
@@ -13711,7 +13710,7 @@
         <v>655</v>
       </c>
       <c r="V156" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.3">
@@ -13779,7 +13778,7 @@
         <v>657</v>
       </c>
       <c r="V157" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
@@ -13915,7 +13914,7 @@
         <v>641</v>
       </c>
       <c r="V159" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
@@ -13983,7 +13982,7 @@
         <v>655</v>
       </c>
       <c r="V160" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
@@ -14051,7 +14050,7 @@
         <v>645</v>
       </c>
       <c r="V161" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
@@ -14119,7 +14118,7 @@
         <v>646</v>
       </c>
       <c r="V162" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
@@ -14459,7 +14458,7 @@
         <v>656</v>
       </c>
       <c r="V167" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
@@ -14527,7 +14526,7 @@
         <v>643</v>
       </c>
       <c r="V168" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
@@ -14663,7 +14662,7 @@
         <v>646</v>
       </c>
       <c r="V170" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
@@ -14867,7 +14866,7 @@
         <v>646</v>
       </c>
       <c r="V173" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
@@ -14935,7 +14934,7 @@
         <v>645</v>
       </c>
       <c r="V174" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
@@ -15003,7 +15002,7 @@
         <v>651</v>
       </c>
       <c r="V175" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
@@ -15071,7 +15070,7 @@
         <v>643</v>
       </c>
       <c r="V176" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
@@ -15139,7 +15138,7 @@
         <v>646</v>
       </c>
       <c r="V177" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
@@ -15411,7 +15410,7 @@
         <v>651</v>
       </c>
       <c r="V181" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.3">
@@ -15479,7 +15478,7 @@
         <v>646</v>
       </c>
       <c r="V182" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.3">
@@ -15547,7 +15546,7 @@
         <v>650</v>
       </c>
       <c r="V183" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.3">
@@ -15615,7 +15614,7 @@
         <v>657</v>
       </c>
       <c r="V184" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.3">
@@ -15683,7 +15682,7 @@
         <v>642</v>
       </c>
       <c r="V185" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.3">
@@ -15819,7 +15818,7 @@
         <v>645</v>
       </c>
       <c r="V187" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.3">
@@ -15887,7 +15886,7 @@
         <v>646</v>
       </c>
       <c r="V188" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.3">
@@ -16091,7 +16090,7 @@
         <v>643</v>
       </c>
       <c r="V191" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
@@ -16159,7 +16158,7 @@
         <v>657</v>
       </c>
       <c r="V192" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.3">
@@ -16363,7 +16362,7 @@
         <v>654</v>
       </c>
       <c r="V195" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.3">
@@ -16431,7 +16430,7 @@
         <v>657</v>
       </c>
       <c r="V196" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
@@ -16499,7 +16498,7 @@
         <v>645</v>
       </c>
       <c r="V197" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.3">
@@ -16703,7 +16702,7 @@
         <v>641</v>
       </c>
       <c r="V200" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.3">
@@ -16771,7 +16770,7 @@
         <v>646</v>
       </c>
       <c r="V201" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.3">
@@ -16907,7 +16906,7 @@
         <v>649</v>
       </c>
       <c r="V203" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.3">
@@ -16975,7 +16974,7 @@
         <v>645</v>
       </c>
       <c r="V204" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.3">
@@ -17043,7 +17042,7 @@
         <v>652</v>
       </c>
       <c r="V205" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
@@ -17111,7 +17110,7 @@
         <v>647</v>
       </c>
       <c r="V206" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
@@ -17179,7 +17178,7 @@
         <v>642</v>
       </c>
       <c r="V207" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
@@ -17247,7 +17246,7 @@
         <v>645</v>
       </c>
       <c r="V208" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.3">
@@ -17315,7 +17314,7 @@
         <v>657</v>
       </c>
       <c r="V209" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.3">
@@ -17383,7 +17382,7 @@
         <v>643</v>
       </c>
       <c r="V210" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.3">
@@ -17451,7 +17450,7 @@
         <v>654</v>
       </c>
       <c r="V211" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.3">
@@ -17519,7 +17518,7 @@
         <v>654</v>
       </c>
       <c r="V212" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.3">
@@ -17587,7 +17586,7 @@
         <v>650</v>
       </c>
       <c r="V213" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.3">
@@ -17723,7 +17722,7 @@
         <v>643</v>
       </c>
       <c r="V215" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.3">
@@ -18063,7 +18062,7 @@
         <v>657</v>
       </c>
       <c r="V220" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.3">
@@ -18131,7 +18130,7 @@
         <v>656</v>
       </c>
       <c r="V221" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.3">
@@ -18199,7 +18198,7 @@
         <v>646</v>
       </c>
       <c r="V222" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.3">
@@ -18267,7 +18266,7 @@
         <v>643</v>
       </c>
       <c r="V223" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.3">
@@ -18335,7 +18334,7 @@
         <v>646</v>
       </c>
       <c r="V224" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.3">
@@ -18403,7 +18402,7 @@
         <v>657</v>
       </c>
       <c r="V225" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.3">
@@ -18471,7 +18470,7 @@
         <v>657</v>
       </c>
       <c r="V226" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.3">
@@ -18743,7 +18742,7 @@
         <v>657</v>
       </c>
       <c r="V230" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.3">
@@ -18811,7 +18810,7 @@
         <v>643</v>
       </c>
       <c r="V231" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.3">
@@ -18879,7 +18878,7 @@
         <v>645</v>
       </c>
       <c r="V232" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
@@ -19015,7 +19014,7 @@
         <v>646</v>
       </c>
       <c r="V234" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.3">
@@ -19083,7 +19082,7 @@
         <v>645</v>
       </c>
       <c r="V235" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.3">
@@ -19151,7 +19150,7 @@
         <v>641</v>
       </c>
       <c r="V236" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.3">
@@ -19219,7 +19218,7 @@
         <v>647</v>
       </c>
       <c r="V237" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.3">
@@ -19287,7 +19286,7 @@
         <v>657</v>
       </c>
       <c r="V238" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.3">
@@ -19355,7 +19354,7 @@
         <v>646</v>
       </c>
       <c r="V239" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.3">
@@ -19491,7 +19490,7 @@
         <v>657</v>
       </c>
       <c r="V241" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.3">
@@ -19559,7 +19558,7 @@
         <v>657</v>
       </c>
       <c r="V242" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.3">
@@ -19627,7 +19626,7 @@
         <v>657</v>
       </c>
       <c r="V243" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.3">
@@ -19695,7 +19694,7 @@
         <v>657</v>
       </c>
       <c r="V244" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.3">
@@ -19763,7 +19762,7 @@
         <v>641</v>
       </c>
       <c r="V245" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.3">
@@ -19831,7 +19830,7 @@
         <v>641</v>
       </c>
       <c r="V246" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.3">
@@ -19899,7 +19898,7 @@
         <v>646</v>
       </c>
       <c r="V247" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.3">
@@ -20103,7 +20102,7 @@
         <v>642</v>
       </c>
       <c r="V250" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.3">
@@ -20171,7 +20170,7 @@
         <v>641</v>
       </c>
       <c r="V251" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.3">
@@ -20307,7 +20306,7 @@
         <v>642</v>
       </c>
       <c r="V253" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.3">
@@ -20443,7 +20442,7 @@
         <v>641</v>
       </c>
       <c r="V255" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.3">
@@ -20579,7 +20578,7 @@
         <v>654</v>
       </c>
       <c r="V257" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.3">
@@ -20647,7 +20646,7 @@
         <v>657</v>
       </c>
       <c r="V258" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.3">
@@ -20715,7 +20714,7 @@
         <v>656</v>
       </c>
       <c r="V259" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.3">
@@ -20851,7 +20850,7 @@
         <v>657</v>
       </c>
       <c r="V261" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.3">
@@ -20919,7 +20918,7 @@
         <v>657</v>
       </c>
       <c r="V262" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.3">
@@ -20987,7 +20986,7 @@
         <v>690</v>
       </c>
       <c r="V263" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.3">
@@ -21055,7 +21054,7 @@
         <v>690</v>
       </c>
       <c r="V264" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.3">
@@ -21327,7 +21326,7 @@
         <v>643</v>
       </c>
       <c r="V268" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.3">
@@ -21463,7 +21462,7 @@
         <v>657</v>
       </c>
       <c r="V270" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/data/Historico de Robos P&G.xlsx
+++ b/data/Historico de Robos P&G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoPG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4429F8-78E3-47DC-BE13-8EF818ACD9E8}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{02148928-AC46-4CDD-985E-F0A0AE1E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7BCF21-25E4-40FB-AF11-A6362761EE89}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FDD57E5-F050-4FF2-A833-F1B4639A88EE}"/>
   </bookViews>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53C1F-2CEA-4529-A7B9-F629CD2F6B8A}">
   <dimension ref="A1:V270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
